--- a/Team-Data/2007-08/3-7-2007-08.xlsx
+++ b/Team-Data/2007-08/3-7-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -696,10 +763,10 @@
         <v>12.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O2" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P2" t="n">
         <v>27.5</v>
@@ -711,10 +778,10 @@
         <v>12.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U2" t="n">
         <v>21.3</v>
@@ -732,19 +799,19 @@
         <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -756,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>27</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -783,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>4</v>
@@ -810,13 +877,13 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
         <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,7 +933,7 @@
         <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.474</v>
@@ -875,55 +942,55 @@
         <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P3" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>9.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="U3" t="n">
         <v>22.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>28</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>11</v>
@@ -959,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
@@ -974,19 +1041,19 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -998,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.371</v>
+        <v>0.361</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>6.3</v>
@@ -1060,22 +1127,22 @@
         <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="R4" t="n">
         <v>11.3</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
         <v>40.8</v>
@@ -1099,31 +1166,31 @@
         <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>18</v>
@@ -1141,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1153,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT4" t="n">
         <v>25</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>24</v>
       </c>
       <c r="AU4" t="n">
         <v>18</v>
@@ -1168,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,10 +1247,10 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
         <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R5" t="n">
         <v>13.5</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V5" t="n">
         <v>14.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1302,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1317,19 +1384,19 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO5" t="n">
         <v>18</v>
       </c>
-      <c r="AO5" t="n">
-        <v>16</v>
-      </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1338,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
@@ -1347,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1356,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB5" t="n">
         <v>19</v>
       </c>
-      <c r="BA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>20</v>
-      </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1532,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1675,22 +1742,22 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1723,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
         <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,67 +1843,67 @@
         <v>39.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
         <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U8" t="n">
         <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AB8" t="n">
         <v>107.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1854,19 +1921,19 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.726</v>
+        <v>0.721</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,28 +2025,28 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>0.457</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R9" t="n">
         <v>11.6</v>
@@ -1988,10 +2055,10 @@
         <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,10 +2100,10 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2057,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>14</v>
@@ -2066,7 +2133,7 @@
         <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2081,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
         <v>16</v>
@@ -2090,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.623</v>
+        <v>0.617</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="J10" t="n">
-        <v>89.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
         <v>9.6</v>
@@ -2152,25 +2219,25 @@
         <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
         <v>0.748</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
         <v>23</v>
@@ -2179,7 +2246,7 @@
         <v>13.4</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2191,16 +2258,16 @@
         <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.9</v>
+        <v>110.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2242,13 +2309,13 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2263,19 +2330,19 @@
         <v>18</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2394,13 +2461,13 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -2409,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
         <v>20</v>
@@ -2418,13 +2485,13 @@
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
@@ -2451,7 +2518,7 @@
         <v>5</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2576,13 +2643,13 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2609,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
@@ -2627,19 +2694,19 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
@@ -2698,28 +2765,28 @@
         <v>12.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q13" t="n">
         <v>0.787</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T13" t="n">
         <v>40.2</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2731,19 +2798,19 @@
         <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.8</v>
+        <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
         <v>28</v>
@@ -2752,13 +2819,13 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
@@ -2788,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS13" t="n">
         <v>16</v>
@@ -2800,16 +2867,16 @@
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2818,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.71</v>
+        <v>0.705</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
         <v>82.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M14" t="n">
         <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S14" t="n">
         <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2907,40 +2974,40 @@
         <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,22 +3019,22 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
         <v>9</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -2994,16 +3061,16 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3161,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" t="n">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,7 +3299,7 @@
         <v>35.4</v>
       </c>
       <c r="J16" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
@@ -3241,31 +3308,31 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P16" t="n">
         <v>24.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T16" t="n">
         <v>38.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
@@ -3274,22 +3341,22 @@
         <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
         <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
         <v>21.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.9</v>
+        <v>-7.4</v>
       </c>
       <c r="AD16" t="n">
         <v>28</v>
@@ -3298,7 +3365,7 @@
         <v>30</v>
       </c>
       <c r="AF16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
         <v>30</v>
@@ -3322,13 +3389,13 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
@@ -3343,10 +3410,10 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
@@ -3367,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,7 +3484,7 @@
         <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3426,7 +3493,7 @@
         <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
@@ -3444,49 +3511,49 @@
         <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3501,19 +3568,19 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
@@ -3534,13 +3601,13 @@
         <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>20</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
         <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.213</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
@@ -3608,28 +3675,28 @@
         <v>15.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
@@ -3644,19 +3711,19 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.6</v>
+        <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,22 +3738,22 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,19 +3768,19 @@
         <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
         <v>18</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.419</v>
+        <v>0.426</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.9</v>
@@ -3790,25 +3857,25 @@
         <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U19" t="n">
         <v>23.5</v>
@@ -3829,16 +3896,16 @@
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="AB19" t="n">
         <v>94</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,7 +3926,7 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>19</v>
@@ -3868,22 +3935,22 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
@@ -3895,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3910,10 +3977,10 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,28 +4027,28 @@
         <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
         <v>7.9</v>
       </c>
       <c r="M20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
@@ -4008,19 +4075,19 @@
         <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC20" t="n">
         <v>5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4047,7 +4114,7 @@
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
@@ -4059,13 +4126,13 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
         <v>10</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4086,16 +4153,16 @@
         <v>9</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.29</v>
+        <v>0.295</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4154,7 +4221,7 @@
         <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
         <v>19</v>
@@ -4163,19 +4230,19 @@
         <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R21" t="n">
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V21" t="n">
         <v>15.2</v>
@@ -4199,10 +4266,10 @@
         <v>95.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4223,7 +4290,7 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4244,10 +4311,10 @@
         <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
@@ -4426,19 +4493,19 @@
         <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
@@ -4450,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
         <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.468</v>
+        <v>0.459</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J23" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P23" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.702</v>
@@ -4539,13 +4606,13 @@
         <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.9</v>
@@ -4554,19 +4621,19 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4602,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4617,28 +4684,28 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY23" t="n">
         <v>16</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.645</v>
+        <v>0.656</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4697,28 +4764,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O24" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.789</v>
+        <v>0.792</v>
       </c>
       <c r="R24" t="n">
         <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U24" t="n">
         <v>26.7</v>
@@ -4730,34 +4797,34 @@
         <v>6.9</v>
       </c>
       <c r="X24" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
@@ -4781,31 +4848,31 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4817,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H25" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J25" t="n">
         <v>79</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M25" t="n">
         <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q25" t="n">
         <v>0.766</v>
@@ -4900,7 +4967,7 @@
         <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
         <v>21</v>
@@ -4915,22 +4982,22 @@
         <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
         <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4954,31 +5021,31 @@
         <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP25" t="n">
         <v>23</v>
       </c>
-      <c r="AP25" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
         <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.435</v>
+        <v>0.443</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
         <v>0.457</v>
@@ -5061,28 +5128,28 @@
         <v>6.4</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S26" t="n">
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U26" t="n">
         <v>19</v>
@@ -5109,10 +5176,10 @@
         <v>101.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
@@ -5151,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
         <v>22</v>
@@ -5160,7 +5227,7 @@
         <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
         <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.705</v>
+        <v>0.717</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5243,34 +5310,34 @@
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O27" t="n">
         <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U27" t="n">
         <v>21.4</v>
       </c>
       <c r="V27" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5279,37 +5346,37 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA27" t="n">
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG27" t="n">
         <v>3</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5330,10 +5397,10 @@
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5360,7 +5427,7 @@
         <v>12</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA27" t="n">
         <v>24</v>
@@ -5369,7 +5436,7 @@
         <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="n">
-        <v>0.258</v>
+        <v>0.262</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,7 +5483,7 @@
         <v>37.7</v>
       </c>
       <c r="J28" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.442</v>
@@ -5428,31 +5495,31 @@
         <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U28" t="n">
         <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5464,19 +5531,19 @@
         <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.7</v>
+        <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5506,16 +5573,16 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>12</v>
@@ -5542,16 +5609,16 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -5580,70 +5647,70 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
         <v>33</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.541</v>
+        <v>0.55</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J29" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L29" t="n">
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
         <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
         <v>40.4</v>
       </c>
       <c r="U29" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V29" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z29" t="n">
         <v>19.9</v>
@@ -5652,31 +5719,31 @@
         <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5703,7 +5770,7 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5715,16 +5782,16 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.651</v>
+        <v>0.645</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J30" t="n">
         <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="L30" t="n">
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R30" t="n">
         <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T30" t="n">
         <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
@@ -5831,25 +5898,25 @@
         <v>24.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.9</v>
+        <v>105.5</v>
       </c>
       <c r="AC30" t="n">
         <v>5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5873,22 +5940,22 @@
         <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
         <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.492</v>
+        <v>0.483</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
         <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
@@ -5974,37 +6041,37 @@
         <v>19.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O31" t="n">
         <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U31" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V31" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
@@ -6016,13 +6083,13 @@
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,16 +6101,16 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>14</v>
@@ -6082,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6094,7 +6161,7 @@
         <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-7-2007-08</t>
+          <t>2008-03-07</t>
         </is>
       </c>
     </row>
